--- a/biology/Botanique/Ouratea_guianensis/Ouratea_guianensis.xlsx
+++ b/biology/Botanique/Ouratea_guianensis/Ouratea_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouratea guianensis est une espèce de plantes à fleurs de la famille des Ochnaceae. C'est un petit arbre ou un arbuste originaire du Nord-Est de l'Amérique du Sud. C'est l'espèce type du genre Ouratea Aubl.[4].
-Il est connu en Guyane sous les noms de Malmani (Créole), Tukãnãkũ (Wayãpi), Yauk nabui, Psuk awak (Palikur), Batiputá (Portugais)[5].
-Au Guyana, on l'appelle Aligator foot print (Créole), qui est la traduction de Akarï tapurarakïrï (Carib)[6].
-Au Brésil, on le connaît aussi sous le nom de Jabotapita[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouratea guianensis est une espèce de plantes à fleurs de la famille des Ochnaceae. C'est un petit arbre ou un arbuste originaire du Nord-Est de l'Amérique du Sud. C'est l'espèce type du genre Ouratea Aubl..
+Il est connu en Guyane sous les noms de Malmani (Créole), Tukãnãkũ (Wayãpi), Yauk nabui, Psuk awak (Palikur), Batiputá (Portugais).
+Au Guyana, on l'appelle Aligator foot print (Créole), qui est la traduction de Akarï tapurarakïrï (Carib).
+Au Brésil, on le connaît aussi sous le nom de Jabotapita.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouratea guianensis est un petit arbre ou un arbuste fortement ramifié, haut de 6-16 m.
 Ses feuilles sont entières, de forme elliptique ou oblongue, précocement acuminée au sommet, à base arrondie ou parfois cuncéé, coriaces, mesurent 18-22 (-33) × 4-8(11) cm.
@@ -525,7 +539,7 @@
 Ses fleurs jaunes, groupées par 2-4, sont suspendues par un pédicelle pouvant atteindre 12 mm de long.
 Elles sont de forme ovoïdes-oblongue, plus courtes que les pédicelles, et comportent 5 sépales distincts, longs de 9-10 mm, et persistant au stade du fruit.
 On compte 5 carpelles.
-Le fruit se compose de 1-2(5) drupéoles bleu-noir, ovoïdes ou ellipsoïdes, longs de 6-8 mm, insérés verticalement dans un disque charnu, rouge, de forme globuleuse ou obovoïde[6],[8],[9].
+Le fruit se compose de 1-2(5) drupéoles bleu-noir, ovoïdes ou ellipsoïdes, longs de 6-8 mm, insérés verticalement dans un disque charnu, rouge, de forme globuleuse ou obovoïde.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouratea guianensis est présent du Venezuela (Delta Amacuro, Bolívar : Distrito Roscio) à l'Amazonie brésilienne (Maranhão), en passant par le Guyana, le Suriname, et la Guyane[9],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouratea guianensis est présent du Venezuela (Delta Amacuro, Bolívar : Distrito Roscio) à l'Amazonie brésilienne (Maranhão), en passant par le Guyana, le Suriname, et la Guyane,.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ouratea guianensis est une petit arbre commun des forêts anciennes[5] ou secondaires[6] de basses terres, autour de 100-200 m d'altitude[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ouratea guianensis est une petit arbre commun des forêts anciennes ou secondaires de basses terres, autour de 100-200 m d'altitude.
 </t>
         </is>
       </c>
@@ -616,11 +634,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, les Wayãpi préparent une décoction antitussive à partir des feuilles d’Ouratea guianensis[5].
-Heckel rapporte en 1897 que les racines et le péricarpe d’Ouratea guianensis sont amers, et ont des propriétés stomachiques «t digestives, mais aussi que ses graines renferment une matière grasse comestible[10].
-Au Guyana, le bois d’Ouratea guianensis est utilisé pour construire l'armature des maisons (chevrons et poutres)[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, les Wayãpi préparent une décoction antitussive à partir des feuilles d’Ouratea guianensis.
+Heckel rapporte en 1897 que les racines et le péricarpe d’Ouratea guianensis sont amers, et ont des propriétés stomachiques «t digestives, mais aussi que ses graines renferment une matière grasse comestible.
+Au Guyana, le bois d’Ouratea guianensis est utilisé pour construire l'armature des maisons (chevrons et poutres).
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve beaucoup de tanins dans les espèces du genre Ouratea[11].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve beaucoup de tanins dans les espèces du genre Ouratea.
 </t>
         </is>
       </c>
@@ -680,9 +702,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[12] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « OURATEA Guianenſis. (Tabula 152.)
 Arbor altiſſima, trunco ſexaginta-pedali, in ſummitate ramos emittente hùc &amp; illùc ſparſos. Folia alterna, petiolata, glabra, rigida, ovato-oblonga, acuta, integerrima. Stipule binæ, oblongæ, anguſtæ, acuminata. Flores paniculati, terminales, gratum odorem ſpirantes, calicis foliola carnoſa, ſubtùs viridia, ſuprà lutea ; petala coloris ſulphurei. Fructus &amp; ſemina deſiderantur. 
 Florebat Maio. 
